--- a/Test/Epsilon/MSE1000007.xlsx
+++ b/Test/Epsilon/MSE1000007.xlsx
@@ -438,25 +438,25 @@
         <v>0.06011516682384038</v>
       </c>
       <c r="F1" t="n">
-        <v>0.05438923688448912</v>
+        <v>0.05266662454935596</v>
       </c>
       <c r="G1" t="n">
-        <v>0.05075035819321429</v>
+        <v>0.04973199354462039</v>
       </c>
       <c r="H1" t="n">
-        <v>0.04973868103008231</v>
+        <v>0.04414649377070747</v>
       </c>
       <c r="I1" t="n">
-        <v>0.03781245163354498</v>
+        <v>0.04314144832763038</v>
       </c>
       <c r="J1" t="n">
-        <v>0.03394960072368065</v>
+        <v>0.0412909118654434</v>
       </c>
       <c r="K1" t="n">
-        <v>0.033073410216343</v>
+        <v>0.03170947255705401</v>
       </c>
       <c r="L1" t="n">
-        <v>0.032663707163243</v>
+        <v>0.02845947747375116</v>
       </c>
     </row>
   </sheetData>
